--- a/statistics/R/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.016862694851825233</v>
+        <v>-0.015457470280839825</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.047357159017238026</v>
+        <v>-0.043410729099134904</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.01468981064311492</v>
+        <v>-0.013465659756188575</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.009167988671094196</v>
+        <v>-0.008403989615169638</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.010020933604008242</v>
+        <v>0.0091858558036740923</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.013144880724635599</v>
+        <v>-0.012049473997582716</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.00063092869998238044</v>
+        <v>-0.00057835130831723758</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0093072538633370838</v>
+        <v>0.0085316493747257804</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0081493466951997884</v>
+        <v>0.0074702344705998014</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00013839527906017723</v>
+        <v>0.00012686233913850042</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.014409716455752342</v>
+        <v>-0.013208906751106197</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.013384722864945242</v>
+        <v>-0.012269329292866449</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.020528109402789596</v>
+        <v>-0.018817433619223833</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.029961809285117436</v>
+        <v>0.027464991844691089</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.013669989642529801</v>
+        <v>0.012530823838985516</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.010493532232662639</v>
+        <v>-0.0096190712132740996</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0048732943469786405</v>
+        <v>0.0044671864847303788</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0033511120467641375</v>
+        <v>-0.0030718527095339732</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.00771239094220455</v>
+        <v>-0.0070696916970207635</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0066048844046208144</v>
+        <v>-0.0060544773709024224</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0024436235904806147</v>
+        <v>-0.0022399882912738645</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.021422028174333863</v>
+        <v>-0.019636859159806008</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.00037084168318179955</v>
+        <v>-0.00033993820958339027</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.016217158800278964</v>
+        <v>-0.014865728900255615</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0061793757445931519</v>
+        <v>0.0056644277658771114</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.014149852450460298</v>
+        <v>0.012970698079588616</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0065892448727005171</v>
+        <v>-0.0060401411333088073</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.015500763326850298</v>
+        <v>-0.014209033049612629</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0071358928501786822</v>
+        <v>-0.0065412351126638013</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>0.007344795388273595</v>
+        <v>0.0067327291059176009</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.01914361473040771</v>
+        <v>-0.017548313502873836</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0078026699161319879</v>
+        <v>-0.0071524474231207669</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0037501440663496033</v>
+        <v>-0.003437632060820317</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.042649207245480492</v>
+        <v>0.039095106641690469</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.031724745234061991</v>
+        <v>-0.029081016464556853</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.010515586706062841</v>
+        <v>-0.009639287813890951</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.0030758413111355298</v>
+        <v>0.0028195212018742311</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.025086092115077563</v>
+        <v>-0.022995584438821048</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.01550163470453314</v>
+        <v>0.014209831812488749</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0025865170792707115</v>
+        <v>0.0023709739893314485</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.00054830179053788619</v>
+        <v>-0.00050260997465972901</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.0077058106949411398</v>
+        <v>-0.0070636598036961651</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.017881204763615988</v>
+        <v>0.016391104366647868</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.0078931109185567672</v>
+        <v>0.0072353516753437264</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.011443640018389989</v>
+        <v>-0.010490003350190735</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.024058463965296317</v>
+        <v>-0.022053591968188235</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0076416560955040458</v>
+        <v>-0.0070048514208787549</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.011023569757360741</v>
+        <v>-0.010104938944247299</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0034075026585073109</v>
+        <v>0.0031235441036316924</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.01633943224332246</v>
+        <v>0.014977812889712228</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.018122954768917454</v>
+        <v>-0.01661270853817437</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.05161313537272616</v>
+        <v>0.047312040758332341</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.022441955412969949</v>
+        <v>-0.02057179246188906</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.015624642478862472</v>
+        <v>-0.014322588938957159</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0058164259251215489</v>
+        <v>-0.0053317237646948179</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.007535307306474448</v>
+        <v>0.0069073650309348089</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0010072183985228023</v>
+        <v>-0.00092328353197917989</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.0014781862607949336</v>
+        <v>0.0013550040723953605</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0087630968065749992</v>
+        <v>-0.0080328387393603928</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.020481330263938891</v>
+        <v>-0.018774552741943895</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.016703696337563523</v>
+        <v>-0.015311721642766563</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.033429083148242777</v>
+        <v>-0.030643326219222555</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0062275795195048667</v>
+        <v>-0.0057086145595462434</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.015538729186980182</v>
+        <v>-0.014243835088065204</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.025419354470737898</v>
+        <v>-0.023301074931509624</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.005018331105287599</v>
+        <v>0.0046001368465136139</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.00062377236290284133</v>
+        <v>0.000571791332660887</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.003555404642361204</v>
+        <v>-0.0032591209221645157</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0088410667644077123</v>
+        <v>0.0081043112007070373</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.030392433653303297</v>
+        <v>0.027859730848861397</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0018380706786503831</v>
+        <v>0.0016848981220963233</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.0031516496047387932</v>
+        <v>-0.0028890121376772826</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0016652276486645023</v>
+        <v>0.0015264586779424327</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.00044265986294966808</v>
+        <v>0.00040577154103732527</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.017659363000977868</v>
+        <v>-0.016187749417563013</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.0083343881297846534</v>
+        <v>-0.0076398557856359184</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>0.0092192700888352741</v>
+        <v>0.0084509975814322513</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.021114431852244819</v>
+        <v>-0.019354895864557797</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.043300576897414733</v>
+        <v>-0.039692195489296866</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.001157872534684079</v>
+        <v>-0.001061383156793716</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.029025061241471917</v>
+        <v>-0.0266063061380159</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.016066231169206024</v>
+        <v>-0.014727378571772143</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0038163826236367604</v>
+        <v>0.0034983507383335444</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.022342644702893155</v>
+        <v>0.020480757644318781</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.002139444168429705</v>
+        <v>-0.0019611571543939332</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.0072197952060651382</v>
+        <v>-0.0066181456055597887</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.010126118821771057</v>
+        <v>-0.009282275586623423</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.035400589748415867</v>
+        <v>0.032450540602714462</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0050055188395109473</v>
+        <v>0.0045883922695516</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.011849865110734714</v>
+        <v>0.010862376351506775</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.021967431387721281</v>
+        <v>-0.020136812105411184</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0044330900656496253</v>
+        <v>0.0040636658935122583</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.0083282039803778685</v>
+        <v>0.0076341869820130137</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.010567684480727979</v>
+        <v>-0.009687044107333953</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.0051480051480051747</v>
+        <v>0.0047190047190047157</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.0070796610651684411</v>
+        <v>-0.0064896893097375341</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.045125760896165157</v>
+        <v>0.041365280821484662</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.022070681125927916</v>
+        <v>0.020231457698767219</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.011424940346509149</v>
+        <v>-0.010472861984300086</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.0086676589234134238</v>
+        <v>0.0079453540131290135</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.046354056188424642</v>
+        <v>-0.042491218172722611</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.061353702658050513</v>
+        <v>-0.056240894103213035</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.010031723126961212</v>
+        <v>0.0091957461997144163</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.0076697746415518298</v>
+        <v>0.0070306267547559642</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0033892117225450824</v>
+        <v>-0.0031067774123329506</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.043391533161354245</v>
+        <v>-0.03977557206457466</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.0013442754831801129</v>
+        <v>-0.001232252526248423</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.021352576051033245</v>
+        <v>-0.019573194713447095</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.013918218887163103</v>
+        <v>-0.012758367313232877</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.024507798535258307</v>
+        <v>-0.022465481990653513</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.00041953483982481998</v>
+        <v>-0.00038457360317273315</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.068838876383633396</v>
+        <v>-0.063102303351663891</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.035971275101709832</v>
+        <v>-0.032973668843234105</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.012196578236037592</v>
+        <v>-0.011180196716367719</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.010911293519989096</v>
+        <v>-0.010002019059990042</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.018410248959447983</v>
+        <v>0.016876061546160781</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.0014012405316752852</v>
+        <v>-0.001284470487369016</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.021091291114174404</v>
+        <v>-0.019333683521326639</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.014265447875287607</v>
+        <v>-0.013076660552347075</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.010688641123423714</v>
+        <v>-0.0097979210298052011</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.038106229922086621</v>
+        <v>-0.034930710761912787</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.020026982209953248</v>
+        <v>-0.018358067025790403</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.00026275007747345036</v>
+        <v>0.00024085423768399616</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.012565077344994013</v>
+        <v>0.011517987566244392</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.01425882606006823</v>
+        <v>0.0130705905550626</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.019198923184430394</v>
+        <v>-0.017599012919061185</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.012192316540142578</v>
+        <v>0.011176290161797386</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.021117067700918701</v>
+        <v>-0.019357312059175402</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0020483498744368611</v>
+        <v>-0.0018776540515670903</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.0061495713669627583</v>
+        <v>-0.0056371070863825423</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.019479002316530991</v>
+        <v>0.017855752123486723</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.044463346932976155</v>
+        <v>-0.040758068021894855</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.00036456558195691047</v>
+        <v>-0.00033418511679389473</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0029739203080164089</v>
+        <v>-0.0027260936156816573</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0075222683918336752</v>
+        <v>-0.0068954126925142023</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.0026424757546038569</v>
+        <v>-0.0024222694417202484</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.0066251656640671786</v>
+        <v>0.006073068525394909</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.019987682459078282</v>
+        <v>0.01832204225415518</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.017921365747452733</v>
+        <v>0.016427918601831626</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.020603890169107519</v>
+        <v>0.018886899321681805</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.012193421284330375</v>
+        <v>-0.011177302843969616</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.011842446625055403</v>
+        <v>0.010855576072967277</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.022985467593033881</v>
+        <v>0.021070011960281021</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.024442877024398901</v>
+        <v>0.022405970605698988</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.0019718359725986456</v>
+        <v>0.0018075163082154622</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.013578578174851474</v>
+        <v>-0.012447029993613745</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.030724143372364843</v>
+        <v>-0.028163798091334402</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.013106637582569247</v>
+        <v>0.012014417784021902</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.029114806288719208</v>
+        <v>-0.026688572431326052</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.013494923661164171</v>
+        <v>-0.012370346689400513</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.0054292685871631385</v>
+        <v>0.0049768295382330296</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.027915822347553854</v>
+        <v>-0.025589503818591042</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.028150470386495041</v>
+        <v>-0.025804597854287181</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.012336729728034068</v>
+        <v>-0.011308668917364595</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0078247034768773593</v>
+        <v>-0.0071726448538043108</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0083994214428997904</v>
+        <v>-0.0076994696559913312</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.016500806148839309</v>
+        <v>0.01512573896976932</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.010239780225754946</v>
+        <v>-0.0093864652069420851</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.029581717987515077</v>
+        <v>-0.027116574821888839</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.014917923691215695</v>
+        <v>-0.013674763383614397</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.008228490937366828</v>
+        <v>0.0075427833592530136</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.020490805017659208</v>
+        <v>-0.018783237932854413</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.027232937416003744</v>
+        <v>-0.024963525964670163</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.019419149853932449</v>
+        <v>-0.017800887366104801</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0057879731792775946</v>
+        <v>0.0053056420810044247</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.016323893124269961</v>
+        <v>0.014963568697247409</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.024750151458226011</v>
+        <v>-0.022687638836707102</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.037033080511341521</v>
+        <v>-0.033946990468729621</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>-0.0029811078724122919</v>
+        <v>-0.0027326822163778464</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.030358372206198359</v>
+        <v>0.02782850785568175</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.021968820881864415</v>
+        <v>0.020138085808375727</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0079327986936683081</v>
+        <v>-0.0072717321358626297</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.040408745843528548</v>
+        <v>0.037041350356567804</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0033110319151509193</v>
+        <v>-0.0030351125888883335</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.015457470280839825</v>
+        <v>-0.016862694851825233</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.043410729099134904</v>
+        <v>-0.047357159017238026</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.013465659756188575</v>
+        <v>-0.01468981064311492</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.008403989615169638</v>
+        <v>-0.009167988671094196</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0091858558036740923</v>
+        <v>0.010020933604008242</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.012049473997582716</v>
+        <v>-0.013144880724635599</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.00057835130831723758</v>
+        <v>-0.00063092869998238044</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0085316493747257804</v>
+        <v>0.0093072538633370838</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0074702344705998014</v>
+        <v>0.0081493466951997884</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00012686233913850042</v>
+        <v>0.00013839527906017723</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.013208906751106197</v>
+        <v>-0.014409716455752342</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.012269329292866449</v>
+        <v>-0.013384722864945242</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.018817433619223833</v>
+        <v>-0.020528109402789596</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.027464991844691089</v>
+        <v>0.029961809285117436</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.012530823838985516</v>
+        <v>0.013669989642529801</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0096190712132740996</v>
+        <v>-0.010493532232662639</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0044671864847303788</v>
+        <v>0.0048732943469786405</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0030718527095339732</v>
+        <v>-0.0033511120467641375</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0070696916970207635</v>
+        <v>-0.00771239094220455</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0060544773709024224</v>
+        <v>-0.0066048844046208144</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0022399882912738645</v>
+        <v>-0.0024436235904806147</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.019636859159806008</v>
+        <v>-0.021422028174333863</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.00033993820958339027</v>
+        <v>-0.00037084168318179955</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.014865728900255615</v>
+        <v>-0.016217158800278964</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0056644277658771114</v>
+        <v>0.0061793757445931519</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.012970698079588616</v>
+        <v>0.014149852450460298</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0060401411333088073</v>
+        <v>-0.0065892448727005171</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.014209033049612629</v>
+        <v>-0.015500763326850298</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0065412351126638013</v>
+        <v>-0.0071358928501786822</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0067327291059176009</v>
+        <v>0.007344795388273595</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.017548313502873836</v>
+        <v>-0.01914361473040771</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0071524474231207669</v>
+        <v>-0.0078026699161319879</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.003437632060820317</v>
+        <v>-0.0037501440663496033</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.039095106641690469</v>
+        <v>0.042649207245480492</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.029081016464556853</v>
+        <v>-0.031724745234061991</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.009639287813890951</v>
+        <v>-0.010515586706062841</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.0028195212018742311</v>
+        <v>0.0030758413111355298</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.022995584438821048</v>
+        <v>-0.025086092115077563</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.014209831812488749</v>
+        <v>0.01550163470453314</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0023709739893314485</v>
+        <v>0.0025865170792707115</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.00050260997465972901</v>
+        <v>-0.00054830179053788619</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.0070636598036961651</v>
+        <v>-0.0077058106949411398</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.016391104366647868</v>
+        <v>0.017881204763615988</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.0072353516753437264</v>
+        <v>0.0078931109185567672</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.010490003350190735</v>
+        <v>-0.011443640018389989</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.022053591968188235</v>
+        <v>-0.024058463965296317</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0070048514208787549</v>
+        <v>-0.0076416560955040458</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.010104938944247299</v>
+        <v>-0.011023569757360741</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0031235441036316924</v>
+        <v>0.0034075026585073109</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.014977812889712228</v>
+        <v>0.01633943224332246</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.01661270853817437</v>
+        <v>-0.018122954768917454</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.047312040758332341</v>
+        <v>0.05161313537272616</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.02057179246188906</v>
+        <v>-0.022441955412969949</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.014322588938957159</v>
+        <v>-0.015624642478862472</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0053317237646948179</v>
+        <v>-0.0058164259251215489</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0069073650309348089</v>
+        <v>0.007535307306474448</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.00092328353197917989</v>
+        <v>-0.0010072183985228023</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.0013550040723953605</v>
+        <v>0.0014781862607949336</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0080328387393603928</v>
+        <v>-0.0087630968065749992</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.018774552741943895</v>
+        <v>-0.020481330263938891</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.015311721642766563</v>
+        <v>-0.016703696337563523</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.030643326219222555</v>
+        <v>-0.033429083148242777</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0057086145595462434</v>
+        <v>-0.0062275795195048667</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.014243835088065204</v>
+        <v>-0.015538729186980182</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.023301074931509624</v>
+        <v>-0.025419354470737898</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0046001368465136139</v>
+        <v>0.005018331105287599</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.000571791332660887</v>
+        <v>0.00062377236290284133</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.0032591209221645157</v>
+        <v>-0.003555404642361204</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0081043112007070373</v>
+        <v>0.0088410667644077123</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.027859730848861397</v>
+        <v>0.030392433653303297</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0016848981220963233</v>
+        <v>0.0018380706786503831</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.0028890121376772826</v>
+        <v>-0.0031516496047387932</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0015264586779424327</v>
+        <v>0.0016652276486645023</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.00040577154103732527</v>
+        <v>0.00044265986294966808</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.016187749417563013</v>
+        <v>-0.017659363000977868</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.0076398557856359184</v>
+        <v>-0.0083343881297846534</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>0.0084509975814322513</v>
+        <v>0.0092192700888352741</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.019354895864557797</v>
+        <v>-0.021114431852244819</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.039692195489296866</v>
+        <v>-0.043300576897414733</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.001061383156793716</v>
+        <v>-0.001157872534684079</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0266063061380159</v>
+        <v>-0.029025061241471917</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.014727378571772143</v>
+        <v>-0.016066231169206024</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0034983507383335444</v>
+        <v>0.0038163826236367604</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.020480757644318781</v>
+        <v>0.022342644702893155</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0019611571543939332</v>
+        <v>-0.002139444168429705</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.0066181456055597887</v>
+        <v>-0.0072197952060651382</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.009282275586623423</v>
+        <v>-0.010126118821771057</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.032450540602714462</v>
+        <v>0.035400589748415867</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0045883922695516</v>
+        <v>0.0050055188395109473</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.010862376351506775</v>
+        <v>0.011849865110734714</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.020136812105411184</v>
+        <v>-0.021967431387721281</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0040636658935122583</v>
+        <v>0.0044330900656496253</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.0076341869820130137</v>
+        <v>0.0083282039803778685</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.009687044107333953</v>
+        <v>-0.010567684480727979</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.0047190047190047157</v>
+        <v>0.0051480051480051747</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.0064896893097375341</v>
+        <v>-0.0070796610651684411</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.041365280821484662</v>
+        <v>0.045125760896165157</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.020231457698767219</v>
+        <v>0.022070681125927916</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.010472861984300086</v>
+        <v>-0.011424940346509149</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.0079453540131290135</v>
+        <v>0.0086676589234134238</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.042491218172722611</v>
+        <v>-0.046354056188424642</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.056240894103213035</v>
+        <v>-0.061353702658050513</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.0091957461997144163</v>
+        <v>0.010031723126961212</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.0070306267547559642</v>
+        <v>0.0076697746415518298</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0031067774123329506</v>
+        <v>-0.0033892117225450824</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.03977557206457466</v>
+        <v>-0.043391533161354245</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.001232252526248423</v>
+        <v>-0.0013442754831801129</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.019573194713447095</v>
+        <v>-0.021352576051033245</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.012758367313232877</v>
+        <v>-0.013918218887163103</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.022465481990653513</v>
+        <v>-0.024507798535258307</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.00038457360317273315</v>
+        <v>-0.00041953483982481998</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.063102303351663891</v>
+        <v>-0.068838876383633396</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.032973668843234105</v>
+        <v>-0.035971275101709832</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.011180196716367719</v>
+        <v>-0.012196578236037592</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.010002019059990042</v>
+        <v>-0.010911293519989096</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.016876061546160781</v>
+        <v>0.018410248959447983</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.001284470487369016</v>
+        <v>-0.0014012405316752852</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.019333683521326639</v>
+        <v>-0.021091291114174404</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.013076660552347075</v>
+        <v>-0.014265447875287607</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.0097979210298052011</v>
+        <v>-0.010688641123423714</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.034930710761912787</v>
+        <v>-0.038106229922086621</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.018358067025790403</v>
+        <v>-0.020026982209953248</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.00024085423768399616</v>
+        <v>0.00026275007747345036</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.011517987566244392</v>
+        <v>0.012565077344994013</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0130705905550626</v>
+        <v>0.01425882606006823</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.017599012919061185</v>
+        <v>-0.019198923184430394</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.011176290161797386</v>
+        <v>0.012192316540142578</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.019357312059175402</v>
+        <v>-0.021117067700918701</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0018776540515670903</v>
+        <v>-0.0020483498744368611</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.0056371070863825423</v>
+        <v>-0.0061495713669627583</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.017855752123486723</v>
+        <v>0.019479002316530991</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.040758068021894855</v>
+        <v>-0.044463346932976155</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.00033418511679389473</v>
+        <v>-0.00036456558195691047</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0027260936156816573</v>
+        <v>-0.0029739203080164089</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0068954126925142023</v>
+        <v>-0.0075222683918336752</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.0024222694417202484</v>
+        <v>-0.0026424757546038569</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.006073068525394909</v>
+        <v>0.0066251656640671786</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.01832204225415518</v>
+        <v>0.019987682459078282</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.016427918601831626</v>
+        <v>0.017921365747452733</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.018886899321681805</v>
+        <v>0.020603890169107519</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.011177302843969616</v>
+        <v>-0.012193421284330375</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.010855576072967277</v>
+        <v>0.011842446625055403</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.021070011960281021</v>
+        <v>0.022985467593033881</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.022405970605698988</v>
+        <v>0.024442877024398901</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.0018075163082154622</v>
+        <v>0.0019718359725986456</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.012447029993613745</v>
+        <v>-0.013578578174851474</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.028163798091334402</v>
+        <v>-0.030724143372364843</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.012014417784021902</v>
+        <v>0.013106637582569247</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.026688572431326052</v>
+        <v>-0.029114806288719208</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.012370346689400513</v>
+        <v>-0.013494923661164171</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.0049768295382330296</v>
+        <v>0.0054292685871631385</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.025589503818591042</v>
+        <v>-0.027915822347553854</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.025804597854287181</v>
+        <v>-0.028150470386495041</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.011308668917364595</v>
+        <v>-0.012336729728034068</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0071726448538043108</v>
+        <v>-0.0078247034768773593</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0076994696559913312</v>
+        <v>-0.0083994214428997904</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.01512573896976932</v>
+        <v>0.016500806148839309</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0093864652069420851</v>
+        <v>-0.010239780225754946</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.027116574821888839</v>
+        <v>-0.029581717987515077</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.013674763383614397</v>
+        <v>-0.014917923691215695</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0075427833592530136</v>
+        <v>0.008228490937366828</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.018783237932854413</v>
+        <v>-0.020490805017659208</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.024963525964670163</v>
+        <v>-0.027232937416003744</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.017800887366104801</v>
+        <v>-0.019419149853932449</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0053056420810044247</v>
+        <v>0.0057879731792775946</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.014963568697247409</v>
+        <v>0.016323893124269961</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.022687638836707102</v>
+        <v>-0.024750151458226011</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.033946990468729621</v>
+        <v>-0.037033080511341521</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>-0.0027326822163778464</v>
+        <v>-0.0029811078724122919</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.02782850785568175</v>
+        <v>0.030358372206198359</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.020138085808375727</v>
+        <v>0.021968820881864415</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.0072717321358626297</v>
+        <v>-0.0079327986936683081</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.037041350356567804</v>
+        <v>0.040408745843528548</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0030351125888883335</v>
+        <v>-0.0033110319151509193</v>
       </c>
     </row>
   </sheetData>
